--- a/doc/2_外部設計書/02_機能一覧_WAC.xlsx
+++ b/doc/2_外部設計書/02_機能一覧_WAC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\開発演習\外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3F2BB1-510C-40A9-A055-09FBF4F3EF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2542A5D2-B85B-4765-A334-EE9C8DE8D295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,16 +555,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エラーチェックを行い、問題なければポスト受け取りテーブルに1件のデータを追加する。</t>
-    <rPh sb="20" eb="21">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>セッションスコープから取得したuser_idから、お気に入りユーザテーブルとレビューテーブルを検索し、お気に入りユーザのレビューをタイムライン形式で画面に表示する。また、ユーザテーブルとレビューテーブルといいねテーブルを結合して、全ユーザのいいね数の合計を算出し、上位5名のユーザ名とアイコンを表示する。</t>
     <rPh sb="11" eb="13">
       <t>シュトク</t>
@@ -958,6 +948,34 @@
     </rPh>
     <rPh sb="326" eb="328">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポスト投稿テーブルからランダムに1件のデータを取得し、画面に表示する。同時にそのデータをポスト受け取りテーブルに1件のデータとして追加する。</t>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1069,7 +1087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1091,6 +1109,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1101,15 +1122,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1416,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I53"/>
+  <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1444,10 +1456,10 @@
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
@@ -1459,24 +1471,24 @@
       <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="9">
         <v>45454</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -1599,7 +1611,7 @@
         <v>31</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>42</v>
@@ -1623,7 +1635,7 @@
         <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>42</v>
@@ -1671,7 +1683,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>42</v>
@@ -1682,7 +1694,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
@@ -1701,12 +1713,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
@@ -1719,7 +1731,7 @@
         <v>41</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>42</v>
@@ -1730,7 +1742,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
@@ -1754,11 +1766,11 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>68</v>
@@ -1767,7 +1779,7 @@
         <v>41</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>42</v>
@@ -1778,20 +1790,20 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>42</v>
@@ -1802,18 +1814,18 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>42</v>
@@ -1837,7 +1849,7 @@
         <v>31</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>42</v>
@@ -1885,7 +1897,7 @@
         <v>31</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>42</v>
@@ -1909,7 +1921,7 @@
         <v>32</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>42</v>
@@ -1944,20 +1956,20 @@
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="13" t="s">
-        <v>105</v>
+      <c r="E26" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>42</v>
@@ -1968,11 +1980,11 @@
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="13" t="s">
-        <v>104</v>
+      <c r="E27" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>63</v>
@@ -1981,7 +1993,7 @@
         <v>41</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>42</v>
@@ -2116,7 +2128,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>60</v>
@@ -2125,7 +2137,7 @@
         <v>41</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>42</v>
@@ -2136,11 +2148,11 @@
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>59</v>
@@ -2149,7 +2161,7 @@
         <v>41</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>42</v>
@@ -2188,7 +2200,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>51</v>
@@ -2197,7 +2209,7 @@
         <v>41</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>42</v>
@@ -2208,176 +2220,24 @@
         <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="12"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="12"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/2_外部設計書/02_機能一覧_WAC.xlsx
+++ b/doc/2_外部設計書/02_機能一覧_WAC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2542A5D2-B85B-4765-A334-EE9C8DE8D295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBC66F6-4C1B-4294-8603-26E9AC82FF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="108">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -346,28 +346,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン処理。成功時はホーム画面に遷移。失敗時はアラートウィンドウを表示する。</t>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>セイコウジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>シッパイジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ApiOtherMyPageServlet</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -601,42 +579,6 @@
     <rPh sb="147" eb="149">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ApiUserRegistServlet内で、ユーザ登録処理を行う。成功時はログイン画面に遷移。
-失敗時はアラートウィンドウを表示する。</t>
-    <rPh sb="20" eb="21">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>セイコウジ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>シッパイジ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ApiContentsRegistServlet内で、コンテンツ登録処理を行う。成功時はホーム画面に遷移。失敗時はアラートウィンドウを表示する。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -977,6 +919,68 @@
     <rPh sb="49" eb="50">
       <t>ト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン処理。成功時はホーム画面に遷移（リダイレクト）。失敗時はアラートウィンドウを表示する。</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>セイコウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>シッパイジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ApiUserRegistServlet内で、ユーザ登録処理を行う。成功時はログイン画面に遷移（リダイレクト）。
+失敗時はアラートウィンドウを表示する。</t>
+    <rPh sb="20" eb="21">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>セイコウジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="57" eb="60">
+      <t>シッパイジ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ApiContentsRegistServlet内で、コンテンツ登録処理を行う。成功時はホーム画面に遷移（リダイレクト）。失敗時はアラートウィンドウを表示する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST（GET）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1430,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1545,7 +1549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1563,7 +1567,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>42</v>
@@ -1593,7 +1597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1611,7 +1615,7 @@
         <v>31</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>42</v>
@@ -1635,7 +1639,7 @@
         <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>42</v>
@@ -1659,7 +1663,7 @@
         <v>31</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>42</v>
@@ -1683,7 +1687,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>42</v>
@@ -1694,20 +1698,20 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>42</v>
@@ -1718,20 +1722,20 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>42</v>
@@ -1742,20 +1746,20 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>42</v>
@@ -1766,20 +1770,20 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>42</v>
@@ -1790,20 +1794,20 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>42</v>
@@ -1814,18 +1818,18 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>42</v>
@@ -1849,7 +1853,7 @@
         <v>31</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>42</v>
@@ -1897,7 +1901,7 @@
         <v>31</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>42</v>
@@ -1921,7 +1925,7 @@
         <v>32</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>42</v>
@@ -1945,7 +1949,7 @@
         <v>31</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>42</v>
@@ -1956,20 +1960,20 @@
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>42</v>
@@ -1980,20 +1984,20 @@
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>42</v>
@@ -2004,20 +2008,20 @@
         <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>42</v>
@@ -2028,20 +2032,20 @@
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>42</v>
@@ -2059,13 +2063,13 @@
         <v>43</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>42</v>
@@ -2076,20 +2080,20 @@
         <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>42</v>
@@ -2100,20 +2104,20 @@
         <v>25</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>42</v>
@@ -2124,20 +2128,20 @@
         <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>42</v>
@@ -2148,20 +2152,20 @@
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>42</v>
@@ -2182,10 +2186,10 @@
         <v>40</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>42</v>
@@ -2200,16 +2204,16 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>42</v>
@@ -2220,20 +2224,20 @@
         <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>42</v>

--- a/doc/2_外部設計書/02_機能一覧_WAC.xlsx
+++ b/doc/2_外部設計書/02_機能一覧_WAC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBC66F6-4C1B-4294-8603-26E9AC82FF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E665268-99B6-4CA9-ADFE-FB75D15A206A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="107">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -457,19 +457,6 @@
     </rPh>
     <rPh sb="59" eb="61">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パラメータとして受け取ったuser_idから、対象ユーザと、対象ユーザのマイコンテンツとレビューを検索し、その情報を画面に表示する。</t>
-    <rPh sb="30" eb="32">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -980,7 +967,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>POST（GET）</t>
+    <t>クエリパラメータとして受け取ったuser_idから、対象ユーザと、対象ユーザのマイコンテンツとレビューを検索し、その情報を画面に表示する。</t>
+    <rPh sb="33" eb="35">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジョウホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1434,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1567,7 +1563,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>42</v>
@@ -1615,7 +1611,7 @@
         <v>31</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>42</v>
@@ -1639,7 +1635,7 @@
         <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>42</v>
@@ -1687,7 +1683,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>42</v>
@@ -1698,7 +1694,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
@@ -1711,7 +1707,7 @@
         <v>41</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>42</v>
@@ -1722,7 +1718,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
@@ -1735,7 +1731,7 @@
         <v>41</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>42</v>
@@ -1746,7 +1742,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
@@ -1759,7 +1755,7 @@
         <v>41</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>42</v>
@@ -1770,20 +1766,20 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>42</v>
@@ -1794,20 +1790,20 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>42</v>
@@ -1818,18 +1814,18 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>42</v>
@@ -1853,7 +1849,7 @@
         <v>31</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>42</v>
@@ -1901,7 +1897,7 @@
         <v>31</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>42</v>
@@ -1925,7 +1921,7 @@
         <v>32</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>42</v>
@@ -1960,20 +1956,20 @@
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>42</v>
@@ -1984,11 +1980,11 @@
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>62</v>
@@ -1997,7 +1993,7 @@
         <v>41</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>42</v>
@@ -2021,7 +2017,7 @@
         <v>41</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>42</v>
@@ -2045,7 +2041,7 @@
         <v>41</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>42</v>
@@ -2069,7 +2065,7 @@
         <v>41</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>42</v>
@@ -2093,7 +2089,7 @@
         <v>41</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>42</v>
@@ -2117,7 +2113,7 @@
         <v>41</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>42</v>
@@ -2132,7 +2128,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>59</v>
@@ -2141,7 +2137,7 @@
         <v>41</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>42</v>
@@ -2152,11 +2148,11 @@
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>58</v>
@@ -2165,7 +2161,7 @@
         <v>41</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>42</v>
@@ -2186,10 +2182,10 @@
         <v>40</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>42</v>
@@ -2204,7 +2200,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>50</v>
@@ -2213,7 +2209,7 @@
         <v>41</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>42</v>
@@ -2224,20 +2220,20 @@
         <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>42</v>

--- a/doc/2_外部設計書/02_機能一覧_WAC.xlsx
+++ b/doc/2_外部設計書/02_機能一覧_WAC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E665268-99B6-4CA9-ADFE-FB75D15A206A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1083AC-C798-45DC-8DB7-9024FA3F0A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="107">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -267,15 +267,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ContentsRegistServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MyPageServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ContentsServlet</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -325,13 +317,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コレクション・ウィッシュリストに追加</t>
-    <rPh sb="16" eb="18">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SearchServlet</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -430,34 +415,6 @@
   </si>
   <si>
     <t>ApiChatServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パラメータとして受け取ったcontents_idから、対象コンテンツと、対象コンテンツに対するレビューを検索し、画面に表示する。</t>
-    <rPh sb="8" eb="9">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -909,64 +866,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン処理。成功時はホーム画面に遷移（リダイレクト）。失敗時はアラートウィンドウを表示する。</t>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>セイコウジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>シッパイジ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ApiUserRegistServlet内で、ユーザ登録処理を行う。成功時はログイン画面に遷移（リダイレクト）。
-失敗時はアラートウィンドウを表示する。</t>
-    <rPh sb="20" eb="21">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>セイコウジ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>シッパイジ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ApiContentsRegistServlet内で、コンテンツ登録処理を行う。成功時はホーム画面に遷移（リダイレクト）。失敗時はアラートウィンドウを表示する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クエリパラメータとして受け取ったuser_idから、対象ユーザと、対象ユーザのマイコンテンツとレビューを検索し、その情報を画面に表示する。</t>
     <rPh sb="33" eb="35">
       <t>タイショウ</t>
@@ -976,6 +875,103 @@
     </rPh>
     <rPh sb="58" eb="60">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ContentsDetailServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クエリパラメータとして受け取ったcontents_idから、対象コンテンツと、対象コンテンツに対するレビューを検索し、画面に表示する。</t>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コレクション・ウィッシュリストに登録</t>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン処理。成功時はHomeServletにリダイレクトし、ホーム画面を表示する。失敗時はアラートウィンドウを表示する。</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>セイコウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>シッパイジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ApiUserRegistServlet内で、ユーザ登録処理を行う。成功時はLoginServletにリダイレクトし、ログイン画面を表示する。失敗時はアラートウィンドウを表示する。</t>
+    <rPh sb="20" eb="21">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>シッパイジ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ApiContentsRegistServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ApiContentsRegistServlet内で、コンテンツ登録処理を行う。成功時は成功のモーダルウィンドウを表示する。</t>
+    <rPh sb="44" eb="46">
+      <t>セイコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1032,7 +1028,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1081,13 +1077,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1122,6 +1127,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1431,7 +1439,7 @@
   <dimension ref="B2:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1539,10 +1547,10 @@
         <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
@@ -1566,7 +1574,7 @@
         <v>103</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -1587,13 +1595,13 @@
         <v>32</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1614,7 +1622,7 @@
         <v>104</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
@@ -1635,10 +1643,10 @@
         <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -1659,10 +1667,10 @@
         <v>31</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="52.8" x14ac:dyDescent="0.2">
@@ -1683,10 +1691,10 @@
         <v>32</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
@@ -1694,23 +1702,23 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
@@ -1718,23 +1726,23 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
@@ -1742,23 +1750,23 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
@@ -1766,23 +1774,23 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
@@ -1790,23 +1798,23 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -1814,21 +1822,21 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
@@ -1843,19 +1851,19 @@
         <v>24</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>15</v>
       </c>
@@ -1864,139 +1872,139 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="52.8" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="118.8" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>21</v>
+      <c r="E25" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="118.8" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="7" t="s">
-        <v>99</v>
+      <c r="E27" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
@@ -2004,23 +2012,23 @@
         <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
@@ -2028,23 +2036,23 @@
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
@@ -2052,23 +2060,23 @@
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
@@ -2076,47 +2084,47 @@
         <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>25</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
@@ -2124,23 +2132,23 @@
         <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
@@ -2148,23 +2156,23 @@
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
@@ -2176,19 +2184,19 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
@@ -2196,48 +2204,28 @@
         <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B37" s="2">
-        <v>30</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="12"/>
+      <c r="I37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
